--- a/medicine/Psychotrope/Cornalin/Cornalin.xlsx
+++ b/medicine/Psychotrope/Cornalin/Cornalin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cornalin N[N 1] est un cépage noir de cuve, parmi les plus anciens cépages autochtones qui aient été plantés en Valais (Suisse)[1]. C'est le premier cépage mentionné dans un document valaisan, dans le Registre d'Anniviers, en date du 20 janvier 1313 [2].
+Le cornalin N[N 1] est un cépage noir de cuve, parmi les plus anciens cépages autochtones qui aient été plantés en Valais (Suisse). C'est le premier cépage mentionné dans un document valaisan, dans le Registre d'Anniviers, en date du 20 janvier 1313 .
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il était autrefois appelé « rouge du pays »[3]. On l'appelle aussi « cornalin du Valais », par opposition à son descendant génétique le cornalin d'Aoste.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il était autrefois appelé « rouge du pays ». On l'appelle aussi « cornalin du Valais », par opposition à son descendant génétique le cornalin d'Aoste.
 C'est un cépage de 3e époque, il lui faut du temps pour mûrir parfaitement. Le moût est moyennement sucré et acide.
 			Grappe de cornalin non mature.
 			Feuille de cornalin.
